--- a/challenge_1/tienda3/tienda_3.xlsx
+++ b/challenge_1/tienda3/tienda_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\challenge_1\challenge_1\tienda3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EDA27B-E030-4938-9270-CD4E3479F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65380637-22F9-4546-B5AB-5CDC5BD2CADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14167" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14166" uniqueCount="1132">
   <si>
     <t>Producto</t>
   </si>
@@ -3421,9 +3421,6 @@
   </si>
   <si>
     <t>24/05/2022</t>
-  </si>
-  <si>
-    <t>Totales</t>
   </si>
   <si>
     <t>lat</t>
@@ -3776,8 +3773,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L2361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A2337" workbookViewId="0">
+      <selection activeCell="D2361" sqref="D2361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3826,10 +3823,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L1" t="s">
         <v>1131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -93475,13 +93472,7 @@
       </c>
     </row>
     <row r="2361" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2361" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C2361" s="1">
-        <f>SUM(C2:C2360)</f>
-        <v>1098019600</v>
-      </c>
+      <c r="C2361" s="1"/>
       <c r="D2361" s="1">
         <f>SUM(D2:D2360)</f>
         <v>58516600</v>
